--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_26.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_26.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_8</t>
+          <t>model_1_26_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9984669627798332</v>
+        <v>0.9468683405037028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244030144332098</v>
+        <v>0.7168706229471289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8114983212091019</v>
+        <v>0.7683693717875184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978325407318999</v>
+        <v>0.9213907723871275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00638130835618277</v>
+        <v>0.170567885836883</v>
       </c>
       <c r="G2" t="n">
-        <v>1.174217851034898</v>
+        <v>1.893287448043455</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67425957507971</v>
+        <v>0.828529326400542</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008595740055010787</v>
+        <v>0.0884146319452252</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1729370889568325</v>
+        <v>0.8473749946693372</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07988309180410313</v>
+        <v>0.4129986511320383</v>
       </c>
       <c r="L2" t="n">
-        <v>1.098114382090678</v>
+        <v>0.9276505062178081</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0811411706462223</v>
+        <v>0.4195029670401799</v>
       </c>
       <c r="N2" t="n">
-        <v>140.1087642622954</v>
+        <v>37.53724380820223</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4439368055118</v>
+        <v>74.50182739642806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_9</t>
+          <t>model_1_26_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984885763686171</v>
+        <v>0.9468198190906805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8243950980776864</v>
+        <v>0.7168464458292138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8116850280559795</v>
+        <v>0.7684291611459084</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978271865569931</v>
+        <v>0.9215204164105129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006291341215854992</v>
+        <v>0.1707236535075246</v>
       </c>
       <c r="G3" t="n">
-        <v>1.174270787740734</v>
+        <v>1.893449120542279</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6735917355143142</v>
+        <v>0.8283154633323675</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008616973716185201</v>
+        <v>0.08826881663880894</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1720347507228357</v>
+        <v>0.8436453857134997</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07931797536406859</v>
+        <v>0.4131871894281388</v>
       </c>
       <c r="L3" t="n">
-        <v>1.096731112408506</v>
+        <v>0.9275844345064586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08056715418716638</v>
+        <v>0.4196944746259748</v>
       </c>
       <c r="N3" t="n">
-        <v>140.1371620022688</v>
+        <v>37.53541818214943</v>
       </c>
       <c r="O3" t="n">
-        <v>281.4723345454852</v>
+        <v>74.50000177037525</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984664068732455</v>
+        <v>0.9467701294333188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8243405477671899</v>
+        <v>0.7168211860638587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8113610599523114</v>
+        <v>0.7684882348965516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9979316823581662</v>
+        <v>0.9216490415558242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006383622332194884</v>
+        <v>0.1708831715780023</v>
       </c>
       <c r="G4" t="n">
-        <v>1.174635565918205</v>
+        <v>1.893618032709519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6747505506363847</v>
+        <v>0.8281041599516097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008202562817238008</v>
+        <v>0.0881241473012904</v>
       </c>
       <c r="J4" t="n">
-        <v>0.175402004649386</v>
+        <v>0.8398576739755985</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07989757400694268</v>
+        <v>0.4133801780177689</v>
       </c>
       <c r="L4" t="n">
-        <v>1.098149960112288</v>
+        <v>0.9275167719943065</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08115588092927967</v>
+        <v>0.4198905025929738</v>
       </c>
       <c r="N4" t="n">
-        <v>140.1080391581507</v>
+        <v>37.53355032623604</v>
       </c>
       <c r="O4" t="n">
-        <v>281.4432117013671</v>
+        <v>74.49813391446186</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9984430642114331</v>
+        <v>0.9467192645126706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8242806611842697</v>
+        <v>0.7167947482788775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8112437208969879</v>
+        <v>0.7685465986827835</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979266790086866</v>
+        <v>0.9217768095863732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006480786785163652</v>
+        <v>0.1710464625811532</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175036027773945</v>
+        <v>1.893794822299424</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6751702656335676</v>
+        <v>0.8278953960723845</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008222405170063113</v>
+        <v>0.08798044199164161</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1763523819450186</v>
+        <v>0.8360126056692176</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08050333400029872</v>
+        <v>0.4135776379123432</v>
       </c>
       <c r="L5" t="n">
-        <v>1.099643890468279</v>
+        <v>0.9274475091236366</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08177118103699323</v>
+        <v>0.4200910722835002</v>
       </c>
       <c r="N5" t="n">
-        <v>140.0778267170499</v>
+        <v>37.53164009677066</v>
       </c>
       <c r="O5" t="n">
-        <v>281.4129992602662</v>
+        <v>74.49622368499648</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9983976646496148</v>
+        <v>0.9466671421654651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8240544061437536</v>
+        <v>0.7167671747860109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8106808509574468</v>
+        <v>0.7686042481899298</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99790117123333</v>
+        <v>0.9219037357517749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006669763673257288</v>
+        <v>0.1712137902846727</v>
       </c>
       <c r="G6" t="n">
-        <v>1.176548996271685</v>
+        <v>1.893979206373187</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6771836187702318</v>
+        <v>0.827689187128033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008323564259681959</v>
+        <v>0.08783768355807108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1776464279407419</v>
+        <v>0.8321061119979811</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08166862110539939</v>
+        <v>0.4137798814402081</v>
       </c>
       <c r="L6" t="n">
-        <v>1.102549462424655</v>
+        <v>0.9273765340125483</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08295482024913949</v>
+        <v>0.4202965009447596</v>
       </c>
       <c r="N6" t="n">
-        <v>140.0203417019561</v>
+        <v>37.52968453558061</v>
       </c>
       <c r="O6" t="n">
-        <v>281.3555142451725</v>
+        <v>74.49426812380642</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9983684831528177</v>
+        <v>0.9466137343688273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8239605358875635</v>
+        <v>0.7167383947187858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8105131067857468</v>
+        <v>0.7686611968673398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9978803123910237</v>
+        <v>0.9220296489536868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006791232432728859</v>
+        <v>0.1713852446500376</v>
       </c>
       <c r="G7" t="n">
-        <v>1.177176707107062</v>
+        <v>1.894171658815241</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6777836299460367</v>
+        <v>0.8274854850110115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008406286546071314</v>
+        <v>0.08769606444105189</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1789481121109741</v>
+        <v>0.8281620090674826</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08240893418027477</v>
+        <v>0.4139870102431205</v>
       </c>
       <c r="L7" t="n">
-        <v>1.104417078219669</v>
+        <v>0.9273038085022329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08370679251490257</v>
+        <v>0.420506891819265</v>
       </c>
       <c r="N7" t="n">
-        <v>139.9842456937053</v>
+        <v>37.52768272749366</v>
       </c>
       <c r="O7" t="n">
-        <v>281.3194182369217</v>
+        <v>74.49226631571948</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9983439543784659</v>
+        <v>0.9465590725361179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8238556730667475</v>
+        <v>0.7167084003412721</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8104377521432307</v>
+        <v>0.7687173030134952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9978756698604788</v>
+        <v>0.9221543764789816</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006893334110808487</v>
+        <v>0.1715607248313382</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177877925272707</v>
+        <v>1.894372231355786</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6780531691330038</v>
+        <v>0.8272847965794349</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008424697958155803</v>
+        <v>0.0875557788972646</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1803484674825049</v>
+        <v>0.8242232412731956</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08302610499601006</v>
+        <v>0.4141988952560572</v>
       </c>
       <c r="L8" t="n">
-        <v>1.105986919778182</v>
+        <v>0.9272293753683308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08433368315404123</v>
+        <v>0.4207221138093482</v>
       </c>
       <c r="N8" t="n">
-        <v>139.954400810447</v>
+        <v>37.5256359887974</v>
       </c>
       <c r="O8" t="n">
-        <v>281.2895733536634</v>
+        <v>74.49021957702323</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9983177941714627</v>
+        <v>0.9465030678730207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8238102711405672</v>
+        <v>0.7166771615950307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8102491530785342</v>
+        <v>0.7687726311978414</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978672686305625</v>
+        <v>0.9222778342097706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007002226670853901</v>
+        <v>0.1717405158838304</v>
       </c>
       <c r="G9" t="n">
-        <v>1.178181528162131</v>
+        <v>1.894581124995744</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6787277770518211</v>
+        <v>0.8270868908721407</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008458015672387426</v>
+        <v>0.08741692153713042</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1815418030624886</v>
+        <v>0.8202225295001498</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08367930849889894</v>
+        <v>0.4144158731079571</v>
       </c>
       <c r="L9" t="n">
-        <v>1.107661173026386</v>
+        <v>0.9271531136994325</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08499717395913667</v>
+        <v>0.4209425088455172</v>
       </c>
       <c r="N9" t="n">
-        <v>139.9230541693446</v>
+        <v>37.52354113975397</v>
       </c>
       <c r="O9" t="n">
-        <v>281.258226712561</v>
+        <v>74.48812472797979</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.998287190662126</v>
+        <v>0.9464457154224488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8237289014660009</v>
+        <v>0.7166446153688527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100805582384806</v>
+        <v>0.7688268255223548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9978384790766801</v>
+        <v>0.9223999151057206</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007129614595484702</v>
+        <v>0.1719246337211867</v>
       </c>
       <c r="G10" t="n">
-        <v>1.178725647550629</v>
+        <v>1.894798761760057</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6793308310190025</v>
+        <v>0.8268930409157238</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008572189684842593</v>
+        <v>0.08727961275277095</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1827046023224707</v>
+        <v>0.8161602036191661</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08443704516078651</v>
+        <v>0.4146379549934939</v>
       </c>
       <c r="L10" t="n">
-        <v>1.109619797623935</v>
+        <v>0.9270750167454622</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08576684421599019</v>
+        <v>0.4211680882987508</v>
       </c>
       <c r="N10" t="n">
-        <v>139.8869961998922</v>
+        <v>37.52139814847094</v>
       </c>
       <c r="O10" t="n">
-        <v>281.2221687431086</v>
+        <v>74.48598173669676</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9982486433042523</v>
+        <v>0.9463869508986361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8235632936229214</v>
+        <v>0.7166107646580948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8099913143352236</v>
+        <v>0.7688801133481572</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977632140001639</v>
+        <v>0.9225208294895456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007290069001726324</v>
+        <v>0.1721132847191788</v>
       </c>
       <c r="G11" t="n">
-        <v>1.179833067959856</v>
+        <v>1.895025121618764</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6796500512862935</v>
+        <v>0.8267024334526344</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008870676970152262</v>
+        <v>0.08714361598664809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1838858339755375</v>
+        <v>0.8120325285914085</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08538190090251167</v>
+        <v>0.414865381442196</v>
       </c>
       <c r="L11" t="n">
-        <v>1.11208682852785</v>
+        <v>0.9269949969683555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08672658049113829</v>
+        <v>0.4213990964866769</v>
       </c>
       <c r="N11" t="n">
-        <v>139.842484535498</v>
+        <v>37.51920477376672</v>
       </c>
       <c r="O11" t="n">
-        <v>281.1776570787144</v>
+        <v>74.48378836199254</v>
       </c>
     </row>
   </sheetData>
